--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최종_lee.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최종_lee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="17175" windowHeight="6210" activeTab="2"/>
@@ -12,7 +12,6 @@
     <sheet name="나만의 코스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -270,18 +269,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>제목의 하단에는 위치검색, 카카오톡 보내기. 여행리스트 담기 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 위치 검색버튼을 누르면 해당 지역 반경 3KM이내의 관광지의 검색결과가 있는 검색페이지로 이동한다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 카카오톡 보내기 버튼을 클릭하면 해당 게시글의 링크가 카카오톡으로 보내진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 여행리스트 담기 버튼을 클릭하면 여행리스트 담기 Modal이 나타난다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -379,14 +370,22 @@
   </si>
   <si>
     <t>제목 옆에는 코스의 시작 지역의 날씨정보가 표시된다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목의 하단에는 위치검색, 공유하기. 여행리스트 담기 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공유하기 보내기 버튼을 클릭하면 해당 게시글의 링크가 카톡,페이스북,트위터로 보내진다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,44 +867,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -913,46 +948,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,6 +972,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1048,6 +1055,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1082,6 +1090,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,19 +1266,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1277,49 +1286,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
@@ -1327,49 +1336,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27">
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -1386,36 +1395,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
         <v>21</v>
@@ -1424,133 +1433,133 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="17" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="17" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="17" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="17" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="16" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="17" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A13" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="32"/>
       <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="37"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A16" s="24" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
         <v>21</v>
@@ -1559,137 +1568,137 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="26" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="16" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="16" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="16" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="16" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="16" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="16" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="16" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="16" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A28" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="32"/>
       <c r="B28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="36"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="19" t="s">
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="24" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>21</v>
@@ -1698,100 +1707,100 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="31" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="32"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="16" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="16" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="16" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="16" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A38" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32"/>
       <c r="B38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="36"/>
-      <c r="D38" s="27"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="37"/>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="C37:E37"/>
@@ -1808,22 +1817,22 @@
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,35 +1841,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="78.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
         <v>21</v>
@@ -1869,146 +1878,146 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="17" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="17" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="17" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="17" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="17" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="16" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="16" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="17" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="17" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A15" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="19" t="s">
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="24" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
         <v>21</v>
@@ -2017,225 +2026,225 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="16" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="32"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="16" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="16" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="32"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A40" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
       <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="36"/>
-      <c r="D40" s="27"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="37"/>
     </row>
-    <row r="41" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A42" s="19" t="s">
+    <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A43" s="24" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9" t="s">
         <v>21</v>
@@ -2244,158 +2253,211 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="31" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="32"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="16" t="s">
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="32"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="16" t="s">
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="16" t="s">
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="32"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="16" t="s">
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="32"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="16" t="s">
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="32"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="16" t="s">
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="32"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="32"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="32"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="16" t="s">
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="32"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="16" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="32"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="16" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="31"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="32"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A59" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="32"/>
       <c r="B59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="36"/>
-      <c r="D59" s="27"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:A40"/>
+    <mergeCell ref="B21:B39"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C59:E59"/>
@@ -2412,59 +2474,6 @@
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:A40"/>
-    <mergeCell ref="B21:B39"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C46:E46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
